--- a/1_Linear Regression Projects/Parameter Optimization for Models.xlsx
+++ b/1_Linear Regression Projects/Parameter Optimization for Models.xlsx
@@ -8,26 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesarthurodendal/Desktop/ML-Projects-master/1_Linear Regression Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4252B9-4F1D-CD45-B9E6-C2AD99EF73E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F739DA-0AD5-DD48-BEB5-5EB1EF15BC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3220" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="3" xr2:uid="{A6D0EC1F-13E5-554C-A6BE-27AB08B3FC2A}"/>
+    <workbookView xWindow="-38400" yWindow="-3220" windowWidth="38400" windowHeight="21600" firstSheet="2" activeTab="5" xr2:uid="{A6D0EC1F-13E5-554C-A6BE-27AB08B3FC2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Polynomial Degree Opti" sheetId="1" r:id="rId1"/>
     <sheet name="DecisionT randomstate Opti" sheetId="2" r:id="rId2"/>
     <sheet name="RandomF_Reg_MaxD" sheetId="3" r:id="rId3"/>
     <sheet name="RandsomF_Reg_nestimator" sheetId="4" r:id="rId4"/>
+    <sheet name="RandomF_Reg_random_state" sheetId="5" r:id="rId5"/>
+    <sheet name="Decision_Tree_Opti" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Polynomial Degree Opti'!$M$6:$M$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Polynomial Degree Opti'!$N$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Polynomial Degree Opti'!$N$6:$N$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Polynomial Degree Opti'!$O$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Polynomial Degree Opti'!$O$6:$O$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Polynomial Degree Opti'!$P$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Polynomial Degree Opti'!$P$6:$P$11</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="352">
   <si>
     <t>PolynomialFeatures</t>
   </si>
@@ -795,6 +788,312 @@
   </si>
   <si>
     <t>Score 20 - Fold Cross Predicted:  0,858950062640792</t>
+  </si>
+  <si>
+    <t>nesti50</t>
+  </si>
+  <si>
+    <t>rnds1</t>
+  </si>
+  <si>
+    <t>rnds11</t>
+  </si>
+  <si>
+    <t>rnds10</t>
+  </si>
+  <si>
+    <t>rnds9</t>
+  </si>
+  <si>
+    <t>rnds8</t>
+  </si>
+  <si>
+    <t>rnds=NONE</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,8630255548060494</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,899980711839483</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4424,1040961249</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,8772515499830107</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  3968,1844657717897</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,8937493588872598</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8577881004556427</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4188,066514438258</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  4089,9288470296383</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8578184736854648</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,8640990339615549</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,8976658068119221</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,863039770150259</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4406,73397613004</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,8985162544172572</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  4013,8427847629882</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4423,874521205863</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,85809899996181</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  3997,129482008541</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8586484966143314</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,8491298484492743</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,8793525667713039</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,8938177336454892</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,8981517267892591</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4643,091319206926</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4152,069414158695</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  4088,612653086597</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  4004,3018524642057</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8538885417737938</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8571135060071613</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,816443305167661</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,8769923145221215</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,8662657749975006</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,8980699518793915</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  5121,423342652288</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4192,486622108882</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  4588,505489568654</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  4005,909075201939</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8270777104567424</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8570243811632074</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,878319620921757</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,8953899151320762</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,6037919141279002</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4169,805895843165</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,6623492738556287</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  4058,2308706854865</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  7524,319514797074</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8571704797791362</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  7290,944914306773</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,6179393781696394</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,8790977362442147</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,6037987027224674</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,8965660939786056</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,6619931526164966</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4156,452084740465</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  7524,255054005888</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  4035,352110473306</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  7294,788791830938</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8558734603874093</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,6176940396018331</t>
+  </si>
+  <si>
+    <t>Training Data vs Predicted Model Data r2_score:  0,8783715430162737</t>
+  </si>
+  <si>
+    <t>Testing Data vs Predict Model Data r2_score:  0,896562343329416</t>
+  </si>
+  <si>
+    <t>RMSE Training Data vs Predicted Model Data r2_score:  4168,916154380467</t>
+  </si>
+  <si>
+    <t>RMSE Testing Data vs Predict Model Data r2_score:  4035,4252733920343</t>
+  </si>
+  <si>
+    <t>Score 20 - Fold Cross Predicted:  0,8573276117592383</t>
+  </si>
+  <si>
+    <t>dt_cv = 10</t>
+  </si>
+  <si>
+    <t>dt_cv = 9</t>
+  </si>
+  <si>
+    <t>dt_cv = 8</t>
+  </si>
+  <si>
+    <t>dt_cv = 7</t>
+  </si>
+  <si>
+    <t>dt_cv = 6</t>
+  </si>
+  <si>
+    <t>dt_cv = 5</t>
+  </si>
+  <si>
+    <t>dt_cv = 4</t>
+  </si>
+  <si>
+    <t>dt_cv = 3</t>
+  </si>
+  <si>
+    <t>dt_cv = 2</t>
+  </si>
+  <si>
+    <t>dt_vc</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>Mean: 70916,997636824</t>
+  </si>
+  <si>
+    <t>Mean: 71432,80097875625</t>
+  </si>
+  <si>
+    <t>Standard deviation: 2274,7140045986184</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1225,65041869707</t>
+  </si>
+  <si>
+    <t>Mean: 71559,50605656621</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1633,7797458595694</t>
+  </si>
+  <si>
+    <t>Mean: 71444,17351649015</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1025,2935956068736</t>
+  </si>
+  <si>
+    <t>Mean: 71097,3560881691</t>
+  </si>
+  <si>
+    <t>Mean: 72643,29825335539</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1874,9781487109537</t>
+  </si>
+  <si>
+    <t>Standard deviation: 338,8174146519264</t>
+  </si>
+  <si>
+    <t>Mean: 72223,84608481803</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1968,8354464613994</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1113,5729893294701</t>
+  </si>
+  <si>
+    <t>Mean: 71226,0578859549</t>
+  </si>
+  <si>
+    <t>Standard deviation: 2425,170681483174</t>
+  </si>
+  <si>
+    <t>Mean: 75208,93413821593</t>
   </si>
 </sst>
 </file>
@@ -1637,6 +1936,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="875447440"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3490,6 +3790,203 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandsomF_Reg_nestimator!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RandsomF_Reg_nestimator!$P$4:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RandsomF_Reg_nestimator!$S$4:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.89850772608108898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89891834769744905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89852012094925304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89880965202662799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89916080906590201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89834923016115698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89902639769425996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89907052735036797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89984128699463595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89987764066086195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89974937173272196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89920392059383203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.899493440431261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.899364000319401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89944314487376797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89976896393642203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89978043663634399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89950995663827804</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89934441668753196</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89943726617537401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4DB8-E147-B272-C7DF359847B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="877556432"/>
+        <c:axId val="753889536"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
@@ -3855,189 +4352,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RandsomF_Reg_nestimator!$S$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Test Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>RandsomF_Reg_nestimator!$P$4:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>RandsomF_Reg_nestimator!$S$4:$S$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.89850772608108898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89891834769744905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89852012094925304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89880965202662799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89916080906590201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89834923016115698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.89902639769425996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89907052735036797</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89984128699463595</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89987764066086195</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.89974937173272196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.89920392059383203</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.899493440431261</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.899364000319401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.89944314487376797</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.89976896393642203</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.89978043663634399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.89950995663827804</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89934441668753196</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.89943726617537401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4DB8-E147-B272-C7DF359847B9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4046,388 +4360,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="877556432"/>
-        <c:axId val="753889536"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RandsomF_Reg_nestimator!$T$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RMSE _Train</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>RandsomF_Reg_nestimator!$P$4:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>RandsomF_Reg_nestimator!$T$4:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>4679.0612147825004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4444.03645299462</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4420.3972875536501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4416.7632226846899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4413.9902507706802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4413.7348402336602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4414.44728456136</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4415.0518812530299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4412.19096022126</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4412.9201208915902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4413.9064119971399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4414.7804007351897</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4412.4796456264503</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4412.5597755074896</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4412.5440648282101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4412.8259993998799</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4412.3684739883502</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4411.6827622278397</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4411.02742761831</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4411.0792469572298</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4DB8-E147-B272-C7DF359847B9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RandsomF_Reg_nestimator!$U$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RMSE_test</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>RandsomF_Reg_nestimator!$P$4:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>RandsomF_Reg_nestimator!$U$4:$U$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>3997.2974308144599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3989.2030201613602</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3997.0533359412002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3991.3472895878799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3984.41575999828</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4000.4174130225401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3987.0703451785598</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3986.1989923321398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3970.9492866298301</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3970.2285721651001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3972.7709311653298</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3983.5639452761998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3977.8387714186802</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3980.3994312652499</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3978.8339432574799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3972.3827084582299</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3972.1553574261302</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3977.51191957838</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3980.7867026467502</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3978.9502457354902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4DB8-E147-B272-C7DF359847B9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="886626432"/>
-        <c:axId val="875447440"/>
+        <c:axId val="828658272"/>
+        <c:axId val="879106304"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="877556432"/>
@@ -4498,7 +4432,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.91"/>
-          <c:min val="0.84000000000000008"/>
+          <c:min val="0.89700000000000013"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4588,9 +4522,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="875447440"/>
+        <c:axId val="879106304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.85500000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -4631,12 +4566,12 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886626432"/>
+        <c:crossAx val="828658272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="886626432"/>
+        <c:axId val="828658272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4647,7 +4582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="875447440"/>
+        <c:crossAx val="879106304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4722,6 +4657,2620 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5866178547325339E-2"/>
+          <c:y val="5.7504619569216577E-2"/>
+          <c:w val="0.6548338827273108"/>
+          <c:h val="0.87842661779014874"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandsomF_Reg_nestimator!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RandsomF_Reg_nestimator!$P$4:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RandsomF_Reg_nestimator!$Q$4:$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.84037286603788597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85783370804136105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85903399685719395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.859618366566132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85965129759067505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85974621541590002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85974843602522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85961495117793096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85950215639113803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85950148535758797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.859544434492857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85939107683856097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85909378673270897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85895625989486402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85880906853760797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85895434035885798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85904240795822095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85903430519440005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85897761703745401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85895006264079199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8400-7D4F-BBFD-E8CCFB5465CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="877556432"/>
+        <c:axId val="753889536"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandsomF_Reg_nestimator!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE _Train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RandsomF_Reg_nestimator!$P$4:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RandsomF_Reg_nestimator!$T$4:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4679.0612147825004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444.03645299462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4420.3972875536501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4416.7632226846899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4413.9902507706802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4413.7348402336602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4414.44728456136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4415.0518812530299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4412.19096022126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4412.9201208915902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4413.9064119971399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4414.7804007351897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4412.4796456264503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4412.5597755074896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4412.5440648282101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4412.8259993998799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4412.3684739883502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4411.6827622278397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4411.02742761831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4411.0792469572298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8400-7D4F-BBFD-E8CCFB5465CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandsomF_Reg_nestimator!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE_test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RandsomF_Reg_nestimator!$P$4:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RandsomF_Reg_nestimator!$U$4:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3997.2974308144599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3989.2030201613602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3997.0533359412002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3991.3472895878799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3984.41575999828</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.4174130225401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3987.0703451785598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3986.1989923321398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3970.9492866298301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3970.2285721651001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3972.7709311653298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3983.5639452761998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3977.8387714186802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3980.3994312652499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3978.8339432574799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3972.3827084582299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3972.1553574261302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3977.51191957838</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3980.7867026467502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3978.9502457354902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8400-7D4F-BBFD-E8CCFB5465CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="877169104"/>
+        <c:axId val="818986608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="877556432"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="753889536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="753889536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8600000000000001"/>
+          <c:min val="0.85850000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877556432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="818986608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4424"/>
+          <c:min val="4404"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877169104"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="877169104"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="818986608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandomF_Reg_random_state!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$L$5:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$M$5:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.85778810045564202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85809899996181005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85711350600716096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85702438116320701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85717047977913596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85587346038740897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.857327611759238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85781847368546404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85864849661433096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85388854177379303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82707771045674205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61793937816963895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.617694039601833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4468-7543-B3D6-7BE447ADE936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandomF_Reg_random_state!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$L$5:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$N$5:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.86302555480604903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86409903396155396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86409903396155396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87699231452212101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87831962092175697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87909773624421395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87837154301627296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87725154998301003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86303977015025901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84912984844927397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81644330516766095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60379191412790001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60379870272246705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4468-7543-B3D6-7BE447ADE936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandomF_Reg_random_state!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$L$5:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$O$5:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.89998071183948303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89766580681192198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89766580681192198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89806995187939098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.895389915132076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89656609397860498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89656234332941598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89374935888725904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89851625441725702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.893817733645489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86626577499750002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66234927385562803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66199315261649605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4468-7543-B3D6-7BE447ADE936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="887074912"/>
+        <c:axId val="885890560"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandomF_Reg_random_state!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE _Train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$L$5:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$P$5:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4424.1040961249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4406.73397613004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4406.73397613004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4192.4866221088796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4169.8058958431602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4156.4520847404601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4168.9161543804603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4188.0665144382501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4423.8745212058602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4643.0913192069202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5121.4233426522796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7524.31951479707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7524.2550540058801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4468-7543-B3D6-7BE447ADE936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandomF_Reg_random_state!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE_test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$L$5:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RandomF_Reg_random_state!$Q$5:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3968.1844657717802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4013.84278476298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4013.84278476298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4005.9090752019301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4058.2308706854801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4035.3521104732999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4035.4252733920298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4089.9288470296301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3997.12948200854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4088.6126530865899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4588.5054895686499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7290.9449143067704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7294.7887918309298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4468-7543-B3D6-7BE447ADE936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="886711936"/>
+        <c:axId val="907817376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="887074912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="885890560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="885890560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.91"/>
+          <c:min val="0.84000000000000008"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887074912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="907817376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5500"/>
+          <c:min val="3000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886711936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250"/>
+        <c:minorUnit val="50"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="886711936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="907817376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3360" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>-fold cross-validation Optimization</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3360" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17175858100022104"/>
+          <c:y val="0.1314120082236612"/>
+          <c:w val="0.70221044126502596"/>
+          <c:h val="0.67417728423378698"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Decision_Tree_Opti!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="73025" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="120650">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Decision_Tree_Opti!$T$4:$T$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>2274.7140045986098</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1633.7797458595601</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1874.9781487109501</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1968.8354464613899</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2425.17068148317</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1225.6504186970701</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1025.29359560687</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>338.81741465192601</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1113.5729893294699</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Decision_Tree_Opti!$T$4:$T$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>2274.7140045986098</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1633.7797458595601</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1874.9781487109501</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1968.8354464613899</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2425.17068148317</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1225.6504186970701</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1025.29359560687</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>338.81741465192601</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1113.5729893294699</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Decision_Tree_Opti!$R$4:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Decision_Tree_Opti!$S$4:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>70916.997636824002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71559.506056566199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71097.356088169094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72223.846084817997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71226.057885954899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71432.800978756204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71444.173516490104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72643.2982533553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75208.934138215904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0679-FE46-B9B5-A27C6975FE4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1531497119"/>
+        <c:axId val="1534152127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1531497119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>number of set</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> splits from main train set</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1534152127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1534152127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>predicted mean value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9186834462729913E-2"/>
+              <c:y val="0.24247045495867195"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1531497119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800"/>
       </a:pPr>
       <a:endParaRPr lang="en-DE"/>
     </a:p>
@@ -4894,6 +7443,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6443,6 +9112,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7089,16 +11306,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>671696</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163696</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>492800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>55218</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7112,6 +11329,126 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>191904</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9D98D5-A75A-E843-9E8B-428AE7BC4B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21683</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>46464</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>201341</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A64CAD-AF43-A749-8DCA-702FCD7172F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F69CDE-DBF8-9C4C-AF07-379F983B49FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7777,7 +12114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3949CB-84E1-994C-9F69-64473A9AE9EC}">
   <dimension ref="A2:U65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+    <sheetView topLeftCell="I11" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <selection activeCell="U13" sqref="T12:U13"/>
     </sheetView>
   </sheetViews>
@@ -8182,7 +12519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98F95B4-BF16-A742-AE12-69A187D168DB}">
   <dimension ref="A3:T68"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O4" sqref="O4:T11"/>
     </sheetView>
   </sheetViews>
@@ -8625,8 +12962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B67CB8-D3B6-A042-BDFC-FE4EED684DB6}">
   <dimension ref="A3:AN201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AN9"/>
+    <sheetView topLeftCell="A12" zoomScale="50" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10114,4 +14451,979 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCF709C-0DA3-674E-8007-B1C2A197FD41}">
+  <dimension ref="A2:Y63"/>
+  <sheetViews>
+    <sheetView topLeftCell="F9" zoomScale="82" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.85778810045564202</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.86302555480604903</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.89998071183948303</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4424.1040961249</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>3968.1844657717802</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="X5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.85809899996181005</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.86409903396155396</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.89766580681192198</v>
+      </c>
+      <c r="P6" s="5">
+        <v>4406.73397613004</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>4013.84278476298</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="X6" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.85711350600716096</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.86409903396155396</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.89766580681192198</v>
+      </c>
+      <c r="P7" s="5">
+        <v>4406.73397613004</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>4013.84278476298</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.85702438116320701</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.87699231452212101</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.89806995187939098</v>
+      </c>
+      <c r="P8" s="5">
+        <v>4192.4866221088796</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>4005.9090752019301</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="Y8" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.85717047977913596</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.87831962092175697</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.895389915132076</v>
+      </c>
+      <c r="P9" s="5">
+        <v>4169.8058958431602</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>4058.2308706854801</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="Y9" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.85587346038740897</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.87909773624421395</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.89656609397860498</v>
+      </c>
+      <c r="P10" s="5">
+        <v>4156.4520847404601</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>4035.3521104732999</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>0.857327611759238</v>
+      </c>
+      <c r="N11">
+        <v>0.87837154301627296</v>
+      </c>
+      <c r="O11">
+        <v>0.89656234332941598</v>
+      </c>
+      <c r="P11">
+        <v>4168.9161543804603</v>
+      </c>
+      <c r="Q11">
+        <v>4035.4252733920298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>0.85781847368546404</v>
+      </c>
+      <c r="N12">
+        <v>0.87725154998301003</v>
+      </c>
+      <c r="O12">
+        <v>0.89374935888725904</v>
+      </c>
+      <c r="P12">
+        <v>4188.0665144382501</v>
+      </c>
+      <c r="Q12">
+        <v>4089.9288470296301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>0.85864849661433096</v>
+      </c>
+      <c r="N13">
+        <v>0.86303977015025901</v>
+      </c>
+      <c r="O13">
+        <v>0.89851625441725702</v>
+      </c>
+      <c r="P13">
+        <v>4423.8745212058602</v>
+      </c>
+      <c r="Q13">
+        <v>3997.12948200854</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>0.85388854177379303</v>
+      </c>
+      <c r="N14">
+        <v>0.84912984844927397</v>
+      </c>
+      <c r="O14">
+        <v>0.893817733645489</v>
+      </c>
+      <c r="P14">
+        <v>4643.0913192069202</v>
+      </c>
+      <c r="Q14">
+        <v>4088.6126530865899</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0.82707771045674205</v>
+      </c>
+      <c r="N15">
+        <v>0.81644330516766095</v>
+      </c>
+      <c r="O15">
+        <v>0.86626577499750002</v>
+      </c>
+      <c r="P15">
+        <v>5121.4233426522796</v>
+      </c>
+      <c r="Q15">
+        <v>4588.5054895686499</v>
+      </c>
+      <c r="X15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.61793937816963895</v>
+      </c>
+      <c r="N16">
+        <v>0.60379191412790001</v>
+      </c>
+      <c r="O16">
+        <v>0.66234927385562803</v>
+      </c>
+      <c r="P16">
+        <v>7524.31951479707</v>
+      </c>
+      <c r="Q16">
+        <v>7290.9449143067704</v>
+      </c>
+      <c r="X16" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.617694039601833</v>
+      </c>
+      <c r="N17">
+        <v>0.60379870272246705</v>
+      </c>
+      <c r="O17">
+        <v>0.66199315261649605</v>
+      </c>
+      <c r="P17">
+        <v>7524.2550540058801</v>
+      </c>
+      <c r="Q17">
+        <v>7294.7887918309298</v>
+      </c>
+      <c r="X17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y18" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="X23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="X32" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y35" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y41" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="X42" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y42" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="X43" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y43" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y45" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y50" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="X51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y51" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="X52" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y52" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="X53" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y53" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y54" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y55" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF32C1B3-2D0D-2842-9BEC-0F12EEB465D7}">
+  <dimension ref="A3:T22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" t="s">
+        <v>327</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="R3" t="s">
+        <v>331</v>
+      </c>
+      <c r="S3" t="s">
+        <v>332</v>
+      </c>
+      <c r="T3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>70916.997636824002</v>
+      </c>
+      <c r="T4">
+        <v>2274.7140045986098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>71559.506056566199</v>
+      </c>
+      <c r="T5">
+        <v>1633.7797458595601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>71097.356088169094</v>
+      </c>
+      <c r="T6">
+        <v>1874.9781487109501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>72223.846084817997</v>
+      </c>
+      <c r="T7">
+        <v>1968.8354464613899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>71226.057885954899</v>
+      </c>
+      <c r="T8">
+        <v>2425.17068148317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>71432.800978756204</v>
+      </c>
+      <c r="T9">
+        <v>1225.6504186970701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>71444.173516490104</v>
+      </c>
+      <c r="T10">
+        <v>1025.29359560687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>72643.2982533553</v>
+      </c>
+      <c r="T11">
+        <v>338.81741465192601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>75208.934138215904</v>
+      </c>
+      <c r="T12">
+        <v>1113.5729893294699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K13" t="s">
+        <v>329</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" t="s">
+        <v>330</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1_Linear Regression Projects/Parameter Optimization for Models.xlsx
+++ b/1_Linear Regression Projects/Parameter Optimization for Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesarthurodendal/Desktop/ML-Projects-master/1_Linear Regression Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F739DA-0AD5-DD48-BEB5-5EB1EF15BC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA91EC4-4055-7D40-B9D7-391E5C8B3791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3220" windowWidth="38400" windowHeight="21600" firstSheet="2" activeTab="5" xr2:uid="{A6D0EC1F-13E5-554C-A6BE-27AB08B3FC2A}"/>
+    <workbookView xWindow="-19960" yWindow="-2040" windowWidth="19960" windowHeight="18600" firstSheet="2" activeTab="5" xr2:uid="{A6D0EC1F-13E5-554C-A6BE-27AB08B3FC2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Polynomial Degree Opti" sheetId="1" r:id="rId1"/>
@@ -1042,65 +1042,65 @@
     <t>Stdev</t>
   </si>
   <si>
-    <t>Mean: 70916,997636824</t>
-  </si>
-  <si>
-    <t>Mean: 71432,80097875625</t>
-  </si>
-  <si>
-    <t>Standard deviation: 2274,7140045986184</t>
-  </si>
-  <si>
-    <t>Standard deviation: 1225,65041869707</t>
-  </si>
-  <si>
-    <t>Mean: 71559,50605656621</t>
-  </si>
-  <si>
-    <t>Standard deviation: 1633,7797458595694</t>
-  </si>
-  <si>
-    <t>Mean: 71444,17351649015</t>
-  </si>
-  <si>
-    <t>Standard deviation: 1025,2935956068736</t>
-  </si>
-  <si>
-    <t>Mean: 71097,3560881691</t>
-  </si>
-  <si>
-    <t>Mean: 72643,29825335539</t>
-  </si>
-  <si>
-    <t>Standard deviation: 1874,9781487109537</t>
-  </si>
-  <si>
-    <t>Standard deviation: 338,8174146519264</t>
-  </si>
-  <si>
-    <t>Mean: 72223,84608481803</t>
-  </si>
-  <si>
-    <t>Standard deviation: 1968,8354464613994</t>
-  </si>
-  <si>
-    <t>Standard deviation: 1113,5729893294701</t>
-  </si>
-  <si>
-    <t>Mean: 71226,0578859549</t>
-  </si>
-  <si>
-    <t>Standard deviation: 2425,170681483174</t>
-  </si>
-  <si>
-    <t>Mean: 75208,93413821593</t>
+    <t>Mean: 70102,83273118701</t>
+  </si>
+  <si>
+    <t>Mean: 71401,47109956531</t>
+  </si>
+  <si>
+    <t>Standard deviation: 2347,4534309510786</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1131,2830207855177</t>
+  </si>
+  <si>
+    <t>Mean: 70568,66784822289</t>
+  </si>
+  <si>
+    <t>Standard deviation: 2310,026699050645</t>
+  </si>
+  <si>
+    <t>Mean: 71962,65143593587</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1446,540327808937</t>
+  </si>
+  <si>
+    <t>Mean: 71447,78272356532</t>
+  </si>
+  <si>
+    <t>Mean: 72582,32868990308</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1700,3346868576264</t>
+  </si>
+  <si>
+    <t>Standard deviation: 647,4885942360285</t>
+  </si>
+  <si>
+    <t>Mean: 71359,14750734021</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1654,3596760346056</t>
+  </si>
+  <si>
+    <t>Mean: 75217,7060416374</t>
+  </si>
+  <si>
+    <t>Standard deviation: 1023,0233399194185</t>
+  </si>
+  <si>
+    <t>Mean: 71499,29963672558</t>
+  </si>
+  <si>
+    <t>Standard deviation: 2223,842677244964</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6777,31 +6777,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>2274.7140045986098</c:v>
+                    <c:v>2347.45343095107</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1633.7797458595601</c:v>
+                    <c:v>2310.0266990506402</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1874.9781487109501</c:v>
+                    <c:v>1700.33468685762</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1968.8354464613899</c:v>
+                    <c:v>1654.3596760345999</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2425.17068148317</c:v>
+                    <c:v>2223.8426772449602</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1225.6504186970701</c:v>
+                    <c:v>1131.28302078551</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1025.29359560687</c:v>
+                    <c:v>1446.54032780893</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>338.81741465192601</c:v>
+                    <c:v>647.48859423602801</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1113.5729893294699</c:v>
+                    <c:v>1023.02333991941</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6813,31 +6813,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>2274.7140045986098</c:v>
+                    <c:v>2347.45343095107</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1633.7797458595601</c:v>
+                    <c:v>2310.0266990506402</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1874.9781487109501</c:v>
+                    <c:v>1700.33468685762</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1968.8354464613899</c:v>
+                    <c:v>1654.3596760345999</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2425.17068148317</c:v>
+                    <c:v>2223.8426772449602</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1225.6504186970701</c:v>
+                    <c:v>1131.28302078551</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1025.29359560687</c:v>
+                    <c:v>1446.54032780893</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>338.81741465192601</c:v>
+                    <c:v>647.48859423602801</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1113.5729893294699</c:v>
+                    <c:v>1023.02333991941</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6899,31 +6899,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>70916.997636824002</c:v>
+                  <c:v>70102.832731186994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71559.506056566199</c:v>
+                  <c:v>70568.667848222802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71097.356088169094</c:v>
+                  <c:v>71447.782723565295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72223.846084817997</c:v>
+                  <c:v>71359.147507340196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71226.057885954899</c:v>
+                  <c:v>71499.299636725496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71432.800978756204</c:v>
+                  <c:v>71401.4710995653</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71444.173516490104</c:v>
+                  <c:v>71962.651435935797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72643.2982533553</c:v>
+                  <c:v>72582.328689903006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75208.934138215904</c:v>
+                  <c:v>75217.706041637401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11429,15 +11429,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11768,7 +11768,7 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="14" max="15" width="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
@@ -11777,12 +11777,12 @@
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11790,17 +11790,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="19">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="19">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="19">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="19">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -11840,7 +11840,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="M7">
         <v>5</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>4720.8671987374801</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="M8">
         <v>4</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>4353.6831585939799</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="M9" s="6">
         <v>3</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>4325.9999647694203</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="19">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>4258.6371164848097</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="19">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -11949,32 +11949,32 @@
         <v>5677.5214160425403</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="19">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="19">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="19">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="19">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -11982,35 +11982,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="19">
       <c r="B26" s="3"/>
     </row>
-    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="19">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="19">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -12018,32 +12018,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="19">
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="19">
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="19">
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="19">
       <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="19">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="19">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -12051,32 +12051,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="19">
       <c r="B42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="19">
       <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="19">
       <c r="B44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="19">
       <c r="B45" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="19">
       <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="19">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -12084,22 +12084,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="19">
       <c r="B52" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="19">
       <c r="B53" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="19">
       <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="19">
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
@@ -12118,7 +12118,7 @@
       <selection activeCell="U13" sqref="T12:U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -12126,17 +12126,17 @@
     <col min="20" max="21" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="19">
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="19">
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="19">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="19">
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
@@ -12181,7 +12181,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="19">
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>4804.8604576484104</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="19">
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>4503.16710174935</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="P8">
         <v>4</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>3977.5325842146899</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="P9">
         <v>3</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>4433.2870528583499</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="P10">
         <v>2</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>4433.2870528583499</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="19">
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
@@ -12310,12 +12310,12 @@
         <v>7294.2744341791504</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="19">
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="19">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -12323,37 +12323,37 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="19">
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="19">
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="19">
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -12361,30 +12361,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="19">
       <c r="B27" s="3"/>
     </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="19">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="19">
       <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="19">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -12392,40 +12392,40 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="19">
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="19">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="19">
       <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="19">
       <c r="B37" s="3"/>
     </row>
-    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="19">
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="19">
       <c r="B41" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="19">
       <c r="B42" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="19">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -12433,27 +12433,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="19">
       <c r="B44" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="19">
       <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="19">
       <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="19">
       <c r="B52" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="19">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -12461,32 +12461,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="19">
       <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="19">
       <c r="B55" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="19">
       <c r="B56" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="19">
       <c r="B60" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="19">
       <c r="B61" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="19">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -12494,17 +12494,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="19">
       <c r="B63" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="19">
       <c r="B64" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="19">
       <c r="B65" s="1" t="s">
         <v>78</v>
       </c>
@@ -12523,18 +12523,18 @@
       <selection activeCell="O4" sqref="O4:T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19">
       <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19">
       <c r="B4" s="1" t="s">
         <v>98</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19">
       <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>4172.51939605809</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>4086.3634400475198</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>4028.4356768545499</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>3980.3994312652499</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="O9">
         <v>3</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>4078.09403650579</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="O10">
         <v>2</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>4578.7955211177796</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="O11">
         <v>1</v>
       </c>
@@ -12718,22 +12718,22 @@
         <v>7297.9282478465902</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19">
       <c r="B13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19">
       <c r="B14" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19">
       <c r="B15" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="19">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="19">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -12757,22 +12757,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="19">
       <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="19">
       <c r="B25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="19">
       <c r="B26" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="19">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="19">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="19">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -12796,22 +12796,22 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="19">
       <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="19">
       <c r="B35" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="19">
       <c r="B36" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="19">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="19">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="19">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -12835,22 +12835,22 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="19">
       <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="19">
       <c r="B45" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="19">
       <c r="B46" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="19">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="19">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="19">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -12874,22 +12874,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="19">
       <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="19">
       <c r="B54" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="19">
       <c r="B55" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="19">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="19">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="19">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -12913,22 +12913,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="19">
       <c r="B63" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="19">
       <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="19">
       <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="19">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="19">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="19">
       <c r="A68" t="s">
         <v>90</v>
       </c>
@@ -12966,14 +12966,14 @@
       <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="19">
       <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
@@ -13009,7 +13009,7 @@
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
     </row>
-    <row r="4" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="19">
       <c r="B4" s="1" t="s">
         <v>155</v>
       </c>
@@ -13045,7 +13045,7 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
     </row>
-    <row r="5" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="19">
       <c r="B5" s="1" t="s">
         <v>156</v>
       </c>
@@ -13083,7 +13083,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="19">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -13124,7 +13124,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="19">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -13165,7 +13165,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="19">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -13204,7 +13204,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="P9">
         <v>50</v>
       </c>
@@ -13235,7 +13235,7 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="P10">
         <v>60</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>3987.0703451785598</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="P11">
         <v>70</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>3986.1989923321398</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="19">
       <c r="P12">
         <v>80</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="19">
       <c r="P13">
         <v>90</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="19">
       <c r="P14">
         <v>100</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="19">
       <c r="B15" s="1" t="s">
         <v>87</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="19">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="19">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="19">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>3978.8339432574799</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="19">
       <c r="B19" s="1" t="s">
         <v>163</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>3972.3827084582299</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="19">
       <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>3972.1553574261302</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="19">
       <c r="P21">
         <v>800</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="19">
       <c r="P22">
         <v>900</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="19">
       <c r="P23">
         <v>1000</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="19">
       <c r="AD24" t="s">
         <v>150</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="19">
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="19">
       <c r="B26" s="1" t="s">
         <v>165</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="19">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="19">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="19">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -13632,17 +13632,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="19">
       <c r="B30" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="19">
       <c r="AE31" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="19">
       <c r="AD32" t="s">
         <v>93</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="19">
       <c r="AD33" t="s">
         <v>151</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="19">
       <c r="AD34" t="s">
         <v>134</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="19">
       <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="19">
       <c r="B36" s="1" t="s">
         <v>170</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="19">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="19">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="19">
       <c r="A39" t="s">
         <v>134</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="19">
       <c r="B40" s="1" t="s">
         <v>174</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="19">
       <c r="AD41" t="s">
         <v>93</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="19">
       <c r="AD42" t="s">
         <v>152</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="19">
       <c r="AD43" t="s">
         <v>134</v>
       </c>
@@ -13738,12 +13738,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="19">
       <c r="AE44" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="19">
       <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
@@ -13751,12 +13751,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="19">
       <c r="B46" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="19">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="19">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" ht="19">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="19">
       <c r="B50" s="1" t="s">
         <v>179</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="19">
       <c r="AD51" t="s">
         <v>93</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="19">
       <c r="AD52" t="s">
         <v>153</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="19">
       <c r="AD53" t="s">
         <v>134</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:40" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" s="8" customFormat="1" ht="19">
       <c r="B54" s="9" t="s">
         <v>87</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="AM54"/>
       <c r="AN54"/>
     </row>
-    <row r="55" spans="1:40" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" s="8" customFormat="1" ht="19">
       <c r="B55" s="9" t="s">
         <v>180</v>
       </c>
@@ -13849,7 +13849,7 @@
       <c r="AM55"/>
       <c r="AN55"/>
     </row>
-    <row r="56" spans="1:40" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" s="8" customFormat="1" ht="19">
       <c r="A56" s="8" t="s">
         <v>93</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:40" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" s="8" customFormat="1" ht="19">
       <c r="A57" s="8" t="s">
         <v>139</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:40" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" s="8" customFormat="1" ht="19">
       <c r="A58" s="8" t="s">
         <v>134</v>
       </c>
@@ -13873,22 +13873,22 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:40" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" s="8" customFormat="1" ht="19">
       <c r="B59" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:40" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" s="8" customFormat="1" ht="20" customHeight="1">
       <c r="B64" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B65" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A66" s="8" t="s">
         <v>93</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A68" s="8" t="s">
         <v>134</v>
       </c>
@@ -13912,22 +13912,22 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B69" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B73" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B74" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A75" s="8" t="s">
         <v>93</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A76" s="8" t="s">
         <v>142</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A77" s="8" t="s">
         <v>134</v>
       </c>
@@ -13951,22 +13951,22 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B78" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B83" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B84" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A85" s="8" t="s">
         <v>93</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A86" s="8" t="s">
         <v>143</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A87" s="8" t="s">
         <v>134</v>
       </c>
@@ -13990,22 +13990,22 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B88" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B94" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B95" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A96" s="8" t="s">
         <v>93</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A97" s="8" t="s">
         <v>144</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A98" s="8" t="s">
         <v>134</v>
       </c>
@@ -14029,22 +14029,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B99" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" s="8" customFormat="1">
       <c r="B104" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" s="8" customFormat="1">
       <c r="B105" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" s="8" customFormat="1">
       <c r="A106" s="8" t="s">
         <v>93</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" s="8" customFormat="1">
       <c r="A107" s="8" t="s">
         <v>145</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" s="8" customFormat="1">
       <c r="A108" s="8" t="s">
         <v>134</v>
       </c>
@@ -14068,25 +14068,25 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" s="8" customFormat="1">
       <c r="B109" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="19">
       <c r="B110" s="3"/>
     </row>
-    <row r="114" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="B114" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="B115" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="A116" s="8" t="s">
         <v>93</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="A117" s="8" t="s">
         <v>146</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="A118" s="8" t="s">
         <v>134</v>
       </c>
@@ -14114,22 +14114,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="B119" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="B123" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="B124" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="125" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="A125" s="8" t="s">
         <v>93</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="A126" s="8" t="s">
         <v>147</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="A127" s="8" t="s">
         <v>134</v>
       </c>
@@ -14153,22 +14153,22 @@
         <v>218</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="8" customFormat="1" ht="19">
       <c r="B128" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B133" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B134" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A135" s="8" t="s">
         <v>93</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A136" s="8" t="s">
         <v>89</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="A137" s="8" t="s">
         <v>134</v>
       </c>
@@ -14192,22 +14192,22 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" s="8" customFormat="1" ht="19">
       <c r="B138" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" s="10" customFormat="1" ht="19">
       <c r="B142" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" s="10" customFormat="1" ht="19">
       <c r="B143" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" s="10" customFormat="1" ht="19">
       <c r="A144" s="10" t="s">
         <v>93</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="145" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" s="10" customFormat="1" ht="19">
       <c r="A145" s="10" t="s">
         <v>148</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="146" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" s="10" customFormat="1" ht="19">
       <c r="A146" s="10" t="s">
         <v>134</v>
       </c>
@@ -14231,18 +14231,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="147" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" s="10" customFormat="1" ht="19">
       <c r="B147" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" s="10" customFormat="1"/>
+    <row r="151" spans="1:2" ht="19">
       <c r="B151" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="19">
       <c r="A152" t="s">
         <v>93</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="19">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="19">
       <c r="A154" t="s">
         <v>134</v>
       </c>
@@ -14266,27 +14266,27 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="19">
       <c r="B155" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="19">
       <c r="B156" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="19">
       <c r="B160" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="19">
       <c r="B161" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="19">
       <c r="A162" t="s">
         <v>93</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="19">
       <c r="A163" t="s">
         <v>150</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="19">
       <c r="A164" t="s">
         <v>134</v>
       </c>
@@ -14310,17 +14310,17 @@
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="19">
       <c r="B165" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="19">
       <c r="B170" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="19">
       <c r="A171" t="s">
         <v>93</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="19">
       <c r="A172" t="s">
         <v>151</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="19">
       <c r="A173" t="s">
         <v>134</v>
       </c>
@@ -14344,22 +14344,22 @@
         <v>237</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="19">
       <c r="B174" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="19">
       <c r="B175" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="19">
       <c r="B179" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="19">
       <c r="A180" t="s">
         <v>93</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="19">
       <c r="A181" t="s">
         <v>152</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="19">
       <c r="A182" t="s">
         <v>134</v>
       </c>
@@ -14383,27 +14383,27 @@
         <v>242</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="19">
       <c r="B183" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="19">
       <c r="B184" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="19">
       <c r="B188" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="19">
       <c r="B189" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="19">
       <c r="A190" t="s">
         <v>93</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="19">
       <c r="A191" t="s">
         <v>153</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="19">
       <c r="A192" t="s">
         <v>134</v>
       </c>
@@ -14427,22 +14427,22 @@
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="19">
       <c r="B193" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>134</v>
       </c>
@@ -14461,22 +14461,22 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="19">
       <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="19">
       <c r="B3" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="19">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="19">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="19">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="19">
       <c r="B7" s="1" t="s">
         <v>263</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="19">
       <c r="L8">
         <v>9</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="19">
       <c r="L9">
         <v>8</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="L10">
         <v>7</v>
       </c>
@@ -14694,7 +14694,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="L11">
         <v>6</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>4035.4252733920298</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="19">
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>4089.9288470296301</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="19">
       <c r="B13" s="1" t="s">
         <v>267</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="19">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="19">
       <c r="A15" t="s">
         <v>250</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="19">
       <c r="A16" t="s">
         <v>252</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="19">
       <c r="B17" s="1" t="s">
         <v>274</v>
       </c>
@@ -14885,12 +14885,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="19">
       <c r="Y18" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="19">
       <c r="X21" t="s">
         <v>92</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="19">
       <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="19">
       <c r="B23" s="1" t="s">
         <v>278</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="19">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="19">
       <c r="A25" t="s">
         <v>250</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="19">
       <c r="A26" t="s">
         <v>253</v>
       </c>
@@ -14953,12 +14953,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="19">
       <c r="B27" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="19">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="A31" s="8" t="s">
         <v>250</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="A32" s="8" t="s">
         <v>254</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B33" s="9" t="s">
         <v>290</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B34" s="9" t="s">
         <v>292</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B35" s="9" t="s">
         <v>294</v>
       </c>
@@ -15021,17 +15021,17 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B36" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B39" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="A40" s="8" t="s">
         <v>92</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="A41" s="8" t="s">
         <v>250</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="A42" s="8" t="s">
         <v>255</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B43" s="9" t="s">
         <v>302</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B44" s="9" t="s">
         <v>304</v>
       </c>
@@ -15089,12 +15089,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="Y45" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B50" s="9" t="s">
         <v>87</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="A51" s="8" t="s">
         <v>92</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="A52" s="8" t="s">
         <v>250</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="A53" s="8" t="s">
         <v>79</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B54" s="9" t="s">
         <v>313</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" s="8" customFormat="1" ht="19">
       <c r="B55" s="9" t="s">
         <v>315</v>
       </c>
@@ -15160,17 +15160,17 @@
         <v>316</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="19">
       <c r="B58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="19">
       <c r="B59" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="19">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="19">
       <c r="A61" t="s">
         <v>250</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="19">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="19">
       <c r="B63" s="1" t="s">
         <v>321</v>
       </c>
@@ -15209,17 +15209,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF32C1B3-2D0D-2842-9BEC-0F12EEB465D7}">
   <dimension ref="A3:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19">
       <c r="A3" t="s">
         <v>322</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19">
       <c r="B4" s="1" t="s">
         <v>336</v>
       </c>
@@ -15253,35 +15253,35 @@
         <v>10</v>
       </c>
       <c r="S4">
-        <v>70916.997636824002</v>
+        <v>70102.832731186994</v>
       </c>
       <c r="T4">
-        <v>2274.7140045986098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2347.45343095107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="R5">
         <v>9</v>
       </c>
       <c r="S5">
-        <v>71559.506056566199</v>
+        <v>70568.667848222802</v>
       </c>
       <c r="T5">
-        <v>1633.7797458595601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2310.0266990506402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="R6">
         <v>8</v>
       </c>
       <c r="S6">
-        <v>71097.356088169094</v>
+        <v>71447.782723565295</v>
       </c>
       <c r="T6">
-        <v>1874.9781487109501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>1700.33468685762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19">
       <c r="B7" s="1" t="s">
         <v>338</v>
       </c>
@@ -15289,13 +15289,13 @@
         <v>7</v>
       </c>
       <c r="S7">
-        <v>72223.846084817997</v>
+        <v>71359.147507340196</v>
       </c>
       <c r="T7">
-        <v>1968.8354464613899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>1654.3596760345999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19">
       <c r="A8" t="s">
         <v>323</v>
       </c>
@@ -15312,13 +15312,13 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>71226.057885954899</v>
+        <v>71499.299636725496</v>
       </c>
       <c r="T8">
-        <v>2425.17068148317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>2223.8426772449602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19">
       <c r="L9" s="1" t="s">
         <v>341</v>
       </c>
@@ -15326,35 +15326,35 @@
         <v>5</v>
       </c>
       <c r="S9">
-        <v>71432.800978756204</v>
+        <v>71401.4710995653</v>
       </c>
       <c r="T9">
-        <v>1225.6504186970701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1131.28302078551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="R10">
         <v>4</v>
       </c>
       <c r="S10">
-        <v>71444.173516490104</v>
+        <v>71962.651435935797</v>
       </c>
       <c r="T10">
-        <v>1025.29359560687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1446.54032780893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="R11">
         <v>3</v>
       </c>
       <c r="S11">
-        <v>72643.2982533553</v>
+        <v>72582.328689903006</v>
       </c>
       <c r="T11">
-        <v>338.81741465192601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>647.48859423602801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19">
       <c r="B12" s="1" t="s">
         <v>342</v>
       </c>
@@ -15365,13 +15365,13 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <v>75208.934138215904</v>
+        <v>75217.706041637401</v>
       </c>
       <c r="T12">
-        <v>1113.5729893294699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>1023.02333991941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19">
       <c r="A13" t="s">
         <v>324</v>
       </c>
@@ -15385,12 +15385,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19">
       <c r="B16" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="19">
       <c r="A17" t="s">
         <v>325</v>
       </c>
@@ -15401,25 +15401,25 @@
         <v>330</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19">
       <c r="L18" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19">
       <c r="A21" t="s">
         <v>326</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19">
       <c r="B22" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
